--- a/PROJ/Aula06/docs/Cronograma.xlsx
+++ b/PROJ/Aula06/docs/Cronograma.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\senai\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gabriel Alves\Senai2023\PROJ\Aula06\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC787149-D1FC-492A-8B8E-F039EA448FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752B712C-8299-45D3-B32E-444275B93689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A10C683-FDE6-4BF9-A6CC-E67497AE4CE7}"/>
   </bookViews>
@@ -254,42 +254,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -299,7 +298,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,45 +615,43 @@
   <dimension ref="E3:W20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="22" width="9.140625" style="1"/>
-    <col min="23" max="23" width="10" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="23" max="23" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="5:23" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
     </row>
     <row r="4" spans="5:23" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
       <c r="H4" s="11" t="s">
         <v>18</v>
       </c>
@@ -676,328 +672,336 @@
       <c r="W4" s="13"/>
     </row>
     <row r="5" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="14" t="s">
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="14" t="s">
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="16"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="10"/>
     </row>
     <row r="6" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="17" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="17" t="s">
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="17" t="s">
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="20" t="s">
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
     </row>
     <row r="8" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
     </row>
     <row r="9" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
     </row>
     <row r="10" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
     </row>
     <row r="11" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
     </row>
     <row r="12" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
     </row>
     <row r="13" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
     </row>
     <row r="14" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
     </row>
     <row r="15" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
     </row>
     <row r="16" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="3"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="1"/>
     </row>
     <row r="17" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="6"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="3"/>
     </row>
     <row r="19" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="5"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="6"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E3:W3"/>
+    <mergeCell ref="E4:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="R6:V6"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="P5:W5"/>
@@ -1011,14 +1015,6 @@
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E3:W3"/>
-    <mergeCell ref="E4:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="R6:V6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
